--- a/biology/Médecine/CIM-10_Chapitre_14___Maladies_de_l'appareil_génito-urinaire/CIM-10_Chapitre_14___Maladies_de_l'appareil_génito-urinaire.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_14___Maladies_de_l'appareil_génito-urinaire/CIM-10_Chapitre_14___Maladies_de_l'appareil_génito-urinaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le Chapitre 14 : Maladies de l'appareil génito-urinaire (N00-N99) de la classification internationale des maladies (CIM-10) publié par l'Organisation mondiale de la santé (OMS)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le Chapitre 14 : Maladies de l'appareil génito-urinaire (N00-N99) de la classification internationale des maladies (CIM-10) publié par l'Organisation mondiale de la santé (OMS).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(N00-N08) Glomérulopathies
-(N00) Syndrome néphritique aigu
+          <t>(N00-N08) Glomérulopathies</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(N00) Syndrome néphritique aigu
 (N00.0) Syndrome néphritique aigu avec anomalies glomérulaires mineures
 (N00.1) Syndrome néphritique aigu avec lésions glomérulaires segmentaires et focales
 (N00.2) Syndrome néphritique aigu avec glomérulonéphrite membraneuse diffuse
@@ -608,9 +625,43 @@
 (N08.3) Glomérulopathie au cours du diabète sucré (E10-E14+)
 (N08.4) Glomérulopathie au cours de maladies endocriniennes, nutritionnelles et métaboliques
 (N08.5) Glomérulopathie au cours d'affections disséminées du tissu conjonctif
-(N08.8) Glomérulopathie au cours d'autres maladies classées ailleurs
-(N10-N16) Maladies rénales tubulo-interstitielles
-(N10) Néphrite tubulo-interstitielle aiguë
+(N08.8) Glomérulopathie au cours d'autres maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N00-N39 - Maladies du système génital : système urinaire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(N10-N16) Maladies rénales tubulo-interstitielles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(N10) Néphrite tubulo-interstitielle aiguë
 (N11) Néphrite tubulo-interstitielle chronique
 (N11.0) Pyélonéphrite non obstructive chronique associée à un reflux
 (N11.1) Pyélonéphrite obstructive chronique
@@ -646,9 +697,43 @@
 (N16.3) Maladie rénale tubulo-interstitielle au cours de maladies métaboliques
 (N16.4) Maladie rénale tubulo-interstitielle au cours d'affections disséminées du tissu conjonctif
 (N16.5) Maladie rénale tubulo-interstitielle au cours d'un rejet de greffe (T86.-+)
-(N16.8) Maladie rénale tubulo-interstitielle au cours d'autres maladies classées ailleurs
-(N17-N19) Insuffisance rénale
-N17) Insuffisance rénale aiguë
+(N16.8) Maladie rénale tubulo-interstitielle au cours d'autres maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N00-N39 - Maladies du système génital : système urinaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(N17-N19) Insuffisance rénale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N17) Insuffisance rénale aiguë
 N17.0) Insuffisance rénale aiguë avec nécrose tubulaire (Nécrose tubulaire)
 N17.1) Insuffisance rénale aiguë avec nécrose corticale aiguë (Nécrose corticale)
 N17.2) Insuffisance rénale aiguë avec nécrose médullaire (Nécrose médullaire)
@@ -658,9 +743,43 @@
 N18.0) Insuffisance rénale terminale
 N18.8) Autres insuffisances rénales chroniques
 N18.9) Insuffisance rénale chronique, sans précision
-N19) Insuffisance rénale, sans précision (Urémie)
-(N20-N23) Urolithiase
-N20) Calcul du rein et de l'uretère
+N19) Insuffisance rénale, sans précision (Urémie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N00-N39 - Maladies du système génital : système urinaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(N20-N23) Urolithiase</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N20) Calcul du rein et de l'uretère
 N20.0) Calcul du rein
 N20.1) Calcul de l'uretère
 N20.2) Calcul du rein avec calcul de l'uretère
@@ -673,9 +792,43 @@
 N22* Calcul des voies urinaires au cours de maladies classées ailleurs
 N22.0* Calcul urinaire au cours de schistosomiase
 N22.8* Calcul des voies urinaires au cours d'autres maladies classées ailleurs
-N23) Colique néphrétique, sans précision
-(N25-N29) Dysfonctionnement du rein et de l'urètre
-N25) Affections dues à une tubulopathie
+N23) Colique néphrétique, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N00-N39 - Maladies du système génital : système urinaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(N25-N29) Dysfonctionnement du rein et de l'urètre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N25) Affections dues à une tubulopathie
 N25.0) Ostéodystrophie rénale (Insuffisance staturale d'origine rénale; Ostéodystrophie azotémique; Rachitisme rénal)
 N25.1) Diabète insipide néphrogénique
 N25.8) Autres affections dues à une tubulopathie (Acidose tubulaire, Syndrome de Lightwood-Albright)
@@ -693,9 +846,43 @@
 N29* Autres affections du rein et de l'uretère au cours de maladies classées ailleurs
 N29.0* Syphilis tardive du rein
 N29.1* Autres affections du rein et de l'uretère au cours de maladies infectieuses et parasitaires classées ailleurs
-N29.8* Autres affections du rein et de l'uretère au cours d'autres maladies classées ailleurs
-(N30-N39) Autres maladie du système urinaire
-N30) Cystite
+N29.8* Autres affections du rein et de l'uretère au cours d'autres maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N00-N39 - Maladies du système génital : système urinaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(N30-N39) Autres maladie du système urinaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N30) Cystite
 N30.0) Cystite aiguë
 N30.1) Cystite interstitielle (chronique)
 N30.2) Autres cystites chroniques
@@ -751,34 +938,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>N40-N99 - Maladies du système génital : bassin, organes génitaux et seins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(N40-N51) Maladies des organes génitaux masculins
-N40) Hyperplasie de la prostate (adénome de la prostate, barrière de Mercier, fibroadénome, fibrome, hyperplasie adénofibromateuse, hyperplasie, hypertrophie, myome de la prostate)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(N40-N51) Maladies des organes génitaux masculins</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N40) Hyperplasie de la prostate (adénome de la prostate, barrière de Mercier, fibroadénome, fibrome, hyperplasie adénofibromateuse, hyperplasie, hypertrophie, myome de la prostate)
 N41) Affections inflammatoires de la prostate
 N41.0) Prostatite aiguë
 N41.1) Prostatite chronique
@@ -829,9 +1021,43 @@
 N51.0* Affections de la prostate au cours de maladies classées ailleurs (prostatite gonococcique, trichomonas tuberculeuse)
 N51.1* Affections du testicule et de l'épididyme au cours de maladies classées ailleurs (épididymite, orchite à Chlamydia)
 N51.2* Balanite au cours de maladies classées ailleurs
-N51.8* Autres affections des organes génitaux de l'homme au cours de maladies classées ailleurs
-(N60-N64) Troubles du sein
-N60) Dysplasies mammaires bénignes (mastopathie fibrokystique)
+N51.8* Autres affections des organes génitaux de l'homme au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N40-N99 - Maladies du système génital : bassin, organes génitaux et seins</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(N60-N64) Troubles du sein</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N60) Dysplasies mammaires bénignes (mastopathie fibrokystique)
 N60.0) Kyste solitaire du sein
 N60.1) Mastopathie kystique diffuse
 N60.2) Adénofibrose du sein
@@ -850,9 +1076,43 @@
 N64.4) Mastodynie
 N64.5) Autres signes et symptômes observés au niveau du sein
 N64.8) Autres affections précisées du sein (Galactocèle)
-N64.9) Affection du sein, sans précision
-(N70-N77) Maladies inflammatoires des organes pelviens féminins
-N70) Salpingite et ovarite
+N64.9) Affection du sein, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N40-N99 - Maladies du système génital : bassin, organes génitaux et seins</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(N70-N77) Maladies inflammatoires des organes pelviens féminins</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N70) Salpingite et ovarite
 N70.0) Salpingite et ovarite aiguës
 N70.1) Salpingite et ovarite chroniques (Hydrosalpinx)
 N70.9) Salpingite et ovarite, sans précision
@@ -895,9 +1155,43 @@
 N77* Ulcération et inflammation vulvo-vaginales au cours de maladies classées ailleurs
 N77.0* Ulcération de la vulve au cours de maladies infectieuses et parasitaires classées ailleurs
 N77.1* Vaginite, vulvite et vulvo-vaginite au cours de maladies infectieuses et parasitaires classées ailleurs
-N77.8* Ulcération et inflammation vulvo-vaginales au cours d'autres maladies classées ailleurs
-(N80-N98) Affections non inflammatoires de l'appareil génital féminin
-N80) Endométriose
+N77.8* Ulcération et inflammation vulvo-vaginales au cours d'autres maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N40-N99 - Maladies du système génital : bassin, organes génitaux et seins</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(N80-N98) Affections non inflammatoires de l'appareil génital féminin</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N80) Endométriose
 N80.0) Endométriose de l'utérus (Adénomyose)
 N80.1) Endométriose de l'ovaire
 N80.2) Endométriose de la trompe de Fallope
@@ -1042,9 +1336,43 @@
 N98.2) Complications de tentative d'implantation d'un œuf fécondé après fécondation in vitro
 N98.3) Complications de tentative d'implantation d'un embryon en cas de transfert d'embryon
 N98.8) Autres complications de la fécondation artificielle
-N98.9) Complication de la fécondation artificielle, sans précision
-(N99) Autres affections de l'appareil génito-urinaire
-N99) Affections de l'appareil génito-urinaire après un acte à visée diagnostique et thérapeutique, non classées ailleurs
+N98.9) Complication de la fécondation artificielle, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_14_:_Maladies_de_l'appareil_génito-urinaire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_14_:_Maladies_de_l%27appareil_g%C3%A9nito-urinaire</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N40-N99 - Maladies du système génital : bassin, organes génitaux et seins</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(N99) Autres affections de l'appareil génito-urinaire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N99) Affections de l'appareil génito-urinaire après un acte à visée diagnostique et thérapeutique, non classées ailleurs
 N99.0) Insuffisance rénale après un acte à visée diagnostique et thérapeutique
 N99.1) Rétrécissement urétral après un acte à visée diagnostique et thérapeutique
 N99.2) Adhérences vaginales post-opératoires
